--- a/data/trans_camb/MCS12_SP_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,33</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,91</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,33</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>6,25; 21,34</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-16,35; -5,32</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9,82; 26,42</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-24,42; -12,55</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,39; 21,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,57; -10,26</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>77,89%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-59,88%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>70,31%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-71,36%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,54%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>28,76; 151,99</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-75,15; -33,45</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32,25; 119,21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-80,68; -57,74</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,76; 115,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,21; -55,1</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,58</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,27</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,75</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,02; -5,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,69; -13,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,93; -4,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,66; -9,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,33; -20,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,93; -10,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,15; -9,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,13; -18,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,41; -9,14</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,08%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,71; -24,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,94; -56,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,64; -20,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,51; -23,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,84; -53,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,6; -28,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,91; -27,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,57; -57,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,38; -28,81</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,38</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,12; 16,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,55; 10,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,36; 13,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,18; 19,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 9,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,69; 14,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,9; 15,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 8,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,56; 13,21</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>310,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>172,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>266,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>132,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>177,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>141,81%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>119,39; 705,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,91; 465,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,1; 624,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,28; 239,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,8; 124,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,58; 181,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>100,57; 282,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,11; 155,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,57; 239,71</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,66</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,65</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,95</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,0; 21,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,19; 15,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 8,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,83; 35,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,66; 22,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 9,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,11; 27,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,74; 16,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 7,78</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>173,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>182,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>178,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,47%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,82%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>90,09; 273,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,71; 202,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,32; 109,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>124,33; 261,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,68; 157,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; 65,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>129,42; 246,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,49; 147,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 67,05</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,4</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,78</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,81</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,41</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,8</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,74</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,64; -9,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 19,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,71; 26,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,95; 3,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,46; 22,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,13; 30,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,68; -5,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,84; 18,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,92; 25,6</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,14%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,76%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,38%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,87%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,23%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,41%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,29%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,72; -37,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,31; 76,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,99; 101,5</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,02; 12,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,45; 69,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,4; 93,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,66; -18,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,49; 58,16</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,72; 83,74</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,14</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,07</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,53; 16,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,52; 11,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,28; 15,54</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,51; 17,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,68; 15,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 10,96</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,34; 15,28</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,53; 12,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,55; 12,21</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>220,29%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,1%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>215,99%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,49%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,51%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,59%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,96%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,15%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>76,4; 473,43</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,71; 354,37</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,56; 477,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,32; 149,03</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,11; 131,25</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; 97,36</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,73; 183,12</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,63; 145,3</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,46; 147,51</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,43</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,68</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,39</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,04</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 9,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,19; 10,95</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,4; 17,51</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 8,1</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,87; 14,23</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,88; 46,98</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 7,32</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,7; 11,29</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,67; 35,8</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,76%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,14%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,26%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,5%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 72,95</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,6; 91,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,02; 144,82</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,42; 45,28</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,65; 78,71</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,21; 261,34</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,2; 47,49</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,06; 71,32</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>75,39; 203,07</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,78</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,08</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,68</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,95</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,24</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 8,12</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,8; -6,26</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,85; -4,12</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 8,92</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,49; -8,25</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,56; -1,05</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 7,61</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,02; -8,58</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,97; -3,95</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,19%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,16%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,61%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,89%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,4%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,04%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,96; 29,28</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,61; -22,5</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,94; -15,46</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 26,26</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,95; -24,85</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,98; -2,81</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 23,83</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,95; -27,84</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,25; -12,74</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,7; 5,78</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 2,21</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 3,33</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,08; 8,32</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 2,49</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 9,8</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,34; 6,42</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 1,82</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 6,32</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,8; 32,57</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,03; 12,4</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 18,57</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,74; 32,52</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,99; 9,79</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 37,29</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,41; 29,36</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,33; 8,2</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,95; 27,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/MCS12_SP_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,68</t>
+          <t>13,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,52</t>
+          <t>-8,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,06</t>
+          <t>14,01</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,33</t>
+          <t>-16,67</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,91</t>
+          <t>13,86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-14,33</t>
+          <t>-12,5</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 21,34</t>
+          <t>4,6; 21,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,35; -5,32</t>
+          <t>-16,67; -0,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,82; 26,42</t>
+          <t>4,65; 22,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,42; -12,55</t>
+          <t>-24,78; -8,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,39; 21,57</t>
+          <t>7,77; 19,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,57; -10,26</t>
+          <t>-18,08; -6,93</t>
         </is>
       </c>
     </row>
@@ -743,12 +743,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>77,89%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-59,88%</t>
+          <t>-20,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -758,12 +758,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>70,31%</t>
+          <t>27,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-71,36%</t>
+          <t>-32,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>73,89%</t>
+          <t>30,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-66,54%</t>
+          <t>-27,23%</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,76; 151,99</t>
+          <t>9,79; 58,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,15; -33,45</t>
+          <t>-37,14; -0,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,25; 119,21</t>
+          <t>8,1; 47,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,68; -57,74</t>
+          <t>-44,35; -19,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,76; 115,02</t>
+          <t>16,04; 47,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-76,21; -55,1</t>
+          <t>-37,02; -16,04</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,52</t>
+          <t>-30,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-18,05</t>
+          <t>-34,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,63</t>
+          <t>-26,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-15,05</t>
+          <t>-26,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-25,43</t>
+          <t>-38,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,58</t>
+          <t>-29,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-13,27</t>
+          <t>-28,3</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-21,75</t>
+          <t>-36,67</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-13,55</t>
+          <t>-28,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,02; -5,95</t>
+          <t>-36,41; -24,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,69; -13,67</t>
+          <t>-40,2; -27,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,93; -4,92</t>
+          <t>-33,59; -20,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,66; -9,36</t>
+          <t>-33,15; -20,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,33; -20,2</t>
+          <t>-44,64; -33,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,93; -10,53</t>
+          <t>-35,64; -24,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,15; -9,15</t>
+          <t>-32,89; -23,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,13; -18,06</t>
+          <t>-40,48; -32,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,41; -9,14</t>
+          <t>-32,94; -24,07</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-43,31%</t>
+          <t>-55,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-67,87%</t>
+          <t>-63,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-39,96%</t>
+          <t>-49,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-36,86%</t>
+          <t>-39,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-62,26%</t>
+          <t>-57,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-40,58%</t>
+          <t>-44,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-39,26%</t>
+          <t>-46,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-64,35%</t>
+          <t>-60,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-40,08%</t>
+          <t>-46,56%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,71; -24,91</t>
+          <t>-62,96; -46,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,94; -56,17</t>
+          <t>-69,66; -54,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,64; -20,17</t>
+          <t>-58,69; -38,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,51; -23,95</t>
+          <t>-47,69; -31,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,84; -53,0</t>
+          <t>-64,21; -51,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,6; -28,79</t>
+          <t>-50,85; -38,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,91; -27,99</t>
+          <t>-52,05; -40,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,57; -57,16</t>
+          <t>-64,58; -54,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,38; -28,81</t>
+          <t>-52,46; -40,58</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,24</t>
+          <t>17,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>19,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,47</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>19,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,85</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,38</t>
+          <t>16,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>19,75</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>-0,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 16,27</t>
+          <t>10,08; 24,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 10,59</t>
+          <t>13,37; 26,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 13,75</t>
+          <t>-5,5; 7,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,18; 19,29</t>
+          <t>8,05; 23,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 9,87</t>
+          <t>12,47; 27,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 14,33</t>
+          <t>-10,06; 4,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,9; 15,83</t>
+          <t>11,05; 21,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 8,84</t>
+          <t>14,45; 25,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 13,21</t>
+          <t>-5,44; 4,01</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>310,99%</t>
+          <t>67,51%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>172,8%</t>
+          <t>78,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>266,4%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>132,51%</t>
+          <t>38,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>49,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>-5,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>177,61%</t>
+          <t>49,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>77,68%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>141,81%</t>
+          <t>-1,13%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>119,39; 705,67</t>
+          <t>33,66; 110,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,91; 465,52</t>
+          <t>46,6; 126,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,1; 624,39</t>
+          <t>-19,21; 35,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>60,28; 239,94</t>
+          <t>18,25; 65,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 124,81</t>
+          <t>28,14; 75,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,58; 181,43</t>
+          <t>-22,49; 11,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>100,57; 282,73</t>
+          <t>30,51; 69,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,11; 155,95</t>
+          <t>40,07; 83,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>72,57; 239,71</t>
+          <t>-15,51; 13,14</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,05</t>
+          <t>17,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>-9,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,27</t>
+          <t>23,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,51</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>-6,92</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,66</t>
+          <t>20,39</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>12,65</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>-7,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,0; 21,38</t>
+          <t>10,43; 23,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 15,35</t>
+          <t>-5,85; 8,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 8,32</t>
+          <t>-18,15; -1,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,83; 35,63</t>
+          <t>17,68; 30,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,66; 22,15</t>
+          <t>-4,07; 9,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 9,23</t>
+          <t>-14,51; 1,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,11; 27,48</t>
+          <t>15,35; 24,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,74; 16,83</t>
+          <t>-2,92; 7,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 7,78</t>
+          <t>-13,1; -1,27</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>173,68%</t>
+          <t>42,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>-24,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>182,67%</t>
+          <t>48,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>-14,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>178,5%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>-17,11%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,09; 273,92</t>
+          <t>23,49; 64,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,71; 202,27</t>
+          <t>-13,32; 22,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 109,32</t>
+          <t>-41,28; -5,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>124,33; 261,81</t>
+          <t>32,91; 67,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>52,68; 157,66</t>
+          <t>-7,99; 21,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 65,91</t>
+          <t>-27,84; 3,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>129,42; 246,69</t>
+          <t>32,09; 58,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>58,49; 147,53</t>
+          <t>-6,26; 18,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 67,05</t>
+          <t>-28,22; -2,64</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-17,4</t>
+          <t>-12,32</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>10,59</t>
+          <t>37,54</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>17,78</t>
+          <t>25,54</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>-10,41</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>12,81</t>
+          <t>27,5</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,41</t>
+          <t>21,68</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-11,8</t>
+          <t>-11,32</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>11,74</t>
+          <t>32,47</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>23,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-25,64; -9,5</t>
+          <t>-21,74; -2,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 19,67</t>
+          <t>29,73; 45,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,71; 26,46</t>
+          <t>16,44; 35,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 3,76</t>
+          <t>-20,0; -0,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,46; 22,88</t>
+          <t>19,66; 36,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,13; 30,01</t>
+          <t>13,3; 28,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -5,89</t>
+          <t>-17,75; -3,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,84; 18,19</t>
+          <t>26,43; 38,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,92; 25,6</t>
+          <t>17,97; 29,95</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-57,14%</t>
+          <t>-25,93%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>78,98%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>58,38%</t>
+          <t>53,74%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-16,87%</t>
+          <t>-17,37%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>45,88%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-34,41%</t>
+          <t>-21,04%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>60,36%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>58,29%</t>
+          <t>44,39%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-72,72; -37,14</t>
+          <t>-42,09; -7,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,31; 76,27</t>
+          <t>56,46; 114,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>23,99; 101,5</t>
+          <t>30,96; 87,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 12,12</t>
+          <t>-31,11; -1,46</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,45; 69,6</t>
+          <t>30,12; 69,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>29,4; 93,08</t>
+          <t>20,39; 53,65</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-47,66; -18,1</t>
+          <t>-31,8; -7,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>12,49; 58,16</t>
+          <t>45,98; 79,17</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>36,72; 83,74</t>
+          <t>30,76; 60,27</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>15,49</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>-7,97</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>11,14</t>
+          <t>12,47</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>-3,5</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>6,53; 16,49</t>
+          <t>7,39; 23,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,52; 11,77</t>
+          <t>-7,53; 8,22</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,28; 15,54</t>
+          <t>-6,75; 8,42</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,51; 17,27</t>
+          <t>0,89; 17,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,68; 15,22</t>
+          <t>-9,25; 7,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 10,96</t>
+          <t>-15,46; 0,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,34; 15,28</t>
+          <t>6,8; 19,08</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,53; 12,22</t>
+          <t>-6,6; 5,53</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,55; 12,21</t>
+          <t>-9,15; 2,5</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>220,29%</t>
+          <t>47,24%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>133,1%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>215,99%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>73,49%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>57,51%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>-17,54%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>110,59%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>76,96%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>80,15%</t>
+          <t>-8,94%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>76,4; 473,43</t>
+          <t>19,81; 82,57</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>16,71; 354,37</t>
+          <t>-21,19; 27,77</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>83,56; 477,65</t>
+          <t>-18,68; 28,78</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,32; 149,03</t>
+          <t>1,71; 43,52</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>7,11; 131,25</t>
+          <t>-19,2; 18,02</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 97,36</t>
+          <t>-30,67; 0,97</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>51,73; 183,12</t>
+          <t>15,91; 53,82</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>28,63; 145,3</t>
+          <t>-15,74; 15,45</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>36,46; 147,51</t>
+          <t>-21,51; 7,08</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>16,3</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>16,21</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>12,43</t>
+          <t>16,33</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>11,33</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>25,39</t>
+          <t>19,02</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>13,79</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>12,46</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>20,04</t>
+          <t>18,53</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,15; 9,26</t>
+          <t>10,22; 21,22</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,19; 10,95</t>
+          <t>10,04; 21,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,4; 17,51</t>
+          <t>9,89; 22,59</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 8,1</t>
+          <t>5,68; 16,89</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,87; 14,23</t>
+          <t>3,51; 14,75</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,88; 46,98</t>
+          <t>11,82; 31,98</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,17; 7,32</t>
+          <t>9,57; 17,39</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,7; 11,29</t>
+          <t>8,49; 16,36</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,67; 35,8</t>
+          <t>13,43; 27,91</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>47,12%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>47,2%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>48,14%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>126,26%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>116,5%</t>
+          <t>45,01%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,3; 72,95</t>
+          <t>27,06; 67,7</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>12,6; 91,0</t>
+          <t>27,19; 67,67</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>46,02; 144,82</t>
+          <t>25,68; 71,14</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 45,28</t>
+          <t>11,24; 38,83</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>20,65; 78,71</t>
+          <t>7,19; 33,53</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>71,21; 261,34</t>
+          <t>23,72; 69,52</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>6,2; 47,49</t>
+          <t>22,29; 44,74</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>24,06; 71,32</t>
+          <t>19,61; 42,07</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>75,39; 203,07</t>
+          <t>31,03; 69,09</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-10,78</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-8,69</t>
+          <t>-10,01</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-13,08</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-5,68</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>-11,95</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-7,24</t>
+          <t>-7,58</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 8,12</t>
+          <t>-7,17; 3,53</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-14,8; -6,26</t>
+          <t>-4,07; 6,26</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-13,85; -4,12</t>
+          <t>-19,09; -4,19</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 8,92</t>
+          <t>-2,93; 7,06</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-17,49; -8,25</t>
+          <t>-9,84; 0,4</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-10,56; -1,05</t>
+          <t>-10,3; -0,6</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,61</t>
+          <t>-3,8; 3,66</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-15,02; -8,58</t>
+          <t>-5,34; 2,11</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-10,97; -3,95</t>
+          <t>-12,84; -3,57</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>-3,82%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-36,19%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-29,16%</t>
+          <t>-19,47%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-36,61%</t>
+          <t>-7,98%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-15,89%</t>
+          <t>-8,6%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>-36,4%</t>
+          <t>-3,65%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-22,04%</t>
+          <t>-13,79%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 29,28</t>
+          <t>-13,42; 7,26</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-46,61; -22,5</t>
+          <t>-7,46; 12,83</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-43,94; -15,46</t>
+          <t>-35,03; -8,82</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 26,26</t>
+          <t>-4,73; 12,85</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-45,95; -24,85</t>
+          <t>-16,0; 0,79</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-26,98; -2,81</t>
+          <t>-16,99; -1,07</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>1,06; 23,83</t>
+          <t>-6,65; 6,86</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-43,95; -27,84</t>
+          <t>-9,36; 3,95</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-32,25; -12,74</t>
+          <t>-22,7; -6,94</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>-2,88</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,78</t>
+          <t>1,01; 6,22</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,21</t>
+          <t>1,38; 6,37</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,33</t>
+          <t>-6,11; -0,5</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,32</t>
+          <t>2,33; 7,11</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,49</t>
+          <t>-2,84; 2,05</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,4; 9,8</t>
+          <t>-5,7; 2,3</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,42</t>
+          <t>2,18; 5,66</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,82</t>
+          <t>-0,03; 3,53</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,32</t>
+          <t>-4,93; 0,01</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>-7,53%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>-5,73%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>-6,02%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>8,8; 32,57</t>
+          <t>2,27; 14,94</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 12,4</t>
+          <t>3,12; 15,48</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 18,57</t>
+          <t>-13,95; -1,19</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>14,74; 32,52</t>
+          <t>4,37; 13,66</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 9,79</t>
+          <t>-5,21; 3,96</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>1,16; 37,29</t>
+          <t>-10,56; 4,4</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>14,41; 29,36</t>
+          <t>4,82; 12,06</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 8,2</t>
+          <t>-0,02; 7,48</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>2,95; 27,98</t>
+          <t>-10,07; 0,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/MCS12_SP_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Provincia-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,59</t>
+          <t>15,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,58</t>
+          <t>-7,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>22,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,01</t>
+          <t>14,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,67</t>
+          <t>-16,8</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18,71</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,86</t>
+          <t>14,99</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-12,5</t>
+          <t>-12,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,5; 23,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 21,65</t>
+          <t>5,87; 22,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -0,39</t>
+          <t>-15,81; 1,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,86; 30,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 22,21</t>
+          <t>5,54; 22,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,78; -8,81</t>
+          <t>-24,53; -8,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,52; 24,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 19,99</t>
+          <t>8,78; 21,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,08; -6,93</t>
+          <t>-17,91; -6,34</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>36,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-20,85%</t>
+          <t>-18,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,53%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-32,77%</t>
+          <t>-32,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,21%</t>
+          <t>32,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-27,23%</t>
+          <t>-25,82%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,08; 64,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,79; 58,45</t>
+          <t>12,46; 61,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,14; -0,86</t>
+          <t>-34,72; 3,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,08; 66,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,1; 47,13</t>
+          <t>9,41; 47,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,35; -19,63</t>
+          <t>-43,41; -18,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,17; 57,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,04; 47,3</t>
+          <t>16,94; 48,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,02; -16,04</t>
+          <t>-36,09; -14,05</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-30,13</t>
+          <t>-30,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-34,58</t>
+          <t>-34,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-26,95</t>
+          <t>-28,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-26,61</t>
+          <t>-26,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-38,78</t>
+          <t>-39,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-29,93</t>
+          <t>-30,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-28,3</t>
+          <t>-28,6</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-36,67</t>
+          <t>-37,02</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-28,36</t>
+          <t>-29,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-36,41; -24,1</t>
+          <t>-36,78; -24,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-40,2; -27,97</t>
+          <t>-40,3; -27,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-33,59; -20,3</t>
+          <t>-34,64; -21,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,15; -20,19</t>
+          <t>-33,22; -20,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,64; -33,23</t>
+          <t>-45,03; -33,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,64; -24,39</t>
+          <t>-36,12; -24,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,89; -23,67</t>
+          <t>-32,86; -23,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,48; -32,36</t>
+          <t>-40,73; -32,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-32,94; -24,07</t>
+          <t>-34,0; -25,08</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-55,0%</t>
+          <t>-54,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-63,11%</t>
+          <t>-62,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-49,2%</t>
+          <t>-50,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-39,77%</t>
+          <t>-39,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-57,96%</t>
+          <t>-57,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-44,73%</t>
+          <t>-44,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-46,45%</t>
+          <t>-46,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-60,19%</t>
+          <t>-59,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-46,56%</t>
+          <t>-47,37%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,96; -46,26</t>
+          <t>-62,7; -46,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,66; -54,78</t>
+          <t>-68,59; -53,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-58,69; -38,84</t>
+          <t>-59,94; -40,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-47,69; -31,5</t>
+          <t>-47,48; -31,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,21; -51,51</t>
+          <t>-63,78; -51,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,85; -38,05</t>
+          <t>-50,63; -37,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,05; -40,09</t>
+          <t>-51,3; -39,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,58; -54,9</t>
+          <t>-63,98; -54,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,46; -40,58</t>
+          <t>-53,42; -41,15</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,11</t>
+          <t>22,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,82</t>
+          <t>21,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,4</t>
+          <t>25,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,66</t>
+          <t>20,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,23</t>
+          <t>23,77</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,75</t>
+          <t>21,01</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-1,81</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,08; 24,57</t>
+          <t>14,52; 29,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,37; 26,89</t>
+          <t>15,04; 29,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 7,98</t>
+          <t>-7,13; 6,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,05; 23,28</t>
+          <t>17,25; 33,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,47; 27,31</t>
+          <t>12,73; 27,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 4,2</t>
+          <t>-11,02; 3,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,05; 21,14</t>
+          <t>18,26; 29,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,45; 25,06</t>
+          <t>15,34; 26,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 4,01</t>
+          <t>-6,7; 2,59</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>67,51%</t>
+          <t>81,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>78,21%</t>
+          <t>80,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>-1,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>61,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,9%</t>
+          <t>-8,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>49,36%</t>
+          <t>69,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>60,05%</t>
+          <t>61,5%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-5,29%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,66; 110,24</t>
+          <t>47,82; 125,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>46,6; 126,08</t>
+          <t>49,82; 128,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 35,27</t>
+          <t>-23,25; 27,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,25; 65,58</t>
+          <t>38,07; 90,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,14; 75,88</t>
+          <t>28,78; 76,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 11,16</t>
+          <t>-24,44; 7,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,51; 69,48</t>
+          <t>49,41; 92,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>40,07; 83,14</t>
+          <t>41,51; 84,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 13,14</t>
+          <t>-18,48; 8,18</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,28</t>
+          <t>22,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,83</t>
+          <t>-9,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,56</t>
+          <t>24,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,92</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,39</t>
+          <t>23,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-4,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,43; 23,49</t>
+          <t>15,38; 30,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 8,17</t>
+          <t>-4,83; 9,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,15; -1,8</t>
+          <t>-18,48; -1,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,68; 30,01</t>
+          <t>17,65; 30,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 9,73</t>
+          <t>-3,79; 10,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 1,53</t>
+          <t>-15,35; 17,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,35; 24,63</t>
+          <t>18,44; 28,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 7,5</t>
+          <t>-2,25; 8,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,1; -1,27</t>
+          <t>-12,54; 12,25</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>54,67%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-24,18%</t>
+          <t>-22,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>48,42%</t>
+          <t>48,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-14,22%</t>
+          <t>-5,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>45,59%</t>
+          <t>51,36%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-17,11%</t>
+          <t>-9,91%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,49; 64,99</t>
+          <t>34,01; 79,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 22,67</t>
+          <t>-10,67; 25,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,28; -5,46</t>
+          <t>-40,0; -3,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32,91; 67,75</t>
+          <t>32,37; 66,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 21,32</t>
+          <t>-6,94; 21,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 3,34</t>
+          <t>-29,67; 37,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,09; 58,58</t>
+          <t>37,92; 65,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 18,07</t>
+          <t>-4,59; 19,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,22; -2,64</t>
+          <t>-27,09; 27,03</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-12,32</t>
+          <t>-11,35</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>37,54</t>
+          <t>38,74</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25,54</t>
+          <t>28,35</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-10,41</t>
+          <t>-9,52</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>27,5</t>
+          <t>27,9</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,68</t>
+          <t>23,7</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-11,32</t>
+          <t>-10,39</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>32,47</t>
+          <t>33,27</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>23,88</t>
+          <t>26,23</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,74; -2,98</t>
+          <t>-20,62; -1,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>29,73; 45,91</t>
+          <t>31,45; 47,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,44; 35,28</t>
+          <t>19,11; 37,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-20,0; -0,67</t>
+          <t>-19,07; -0,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,66; 36,62</t>
+          <t>19,98; 36,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,3; 28,99</t>
+          <t>15,55; 30,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-17,75; -3,46</t>
+          <t>-16,9; -2,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>26,43; 38,64</t>
+          <t>27,36; 39,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>17,97; 29,95</t>
+          <t>20,5; 32,16</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-25,93%</t>
+          <t>-23,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>78,98%</t>
+          <t>80,7%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>53,74%</t>
+          <t>59,06%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-17,37%</t>
+          <t>-15,88%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>45,88%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-21,04%</t>
+          <t>-19,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>60,36%</t>
+          <t>61,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>44,39%</t>
+          <t>48,55%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-42,09; -7,55</t>
+          <t>-39,65; -4,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>56,46; 114,2</t>
+          <t>58,92; 115,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>30,96; 87,6</t>
+          <t>35,76; 93,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-31,11; -1,46</t>
+          <t>-29,55; -0,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>30,12; 69,9</t>
+          <t>31,12; 70,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,39; 53,65</t>
+          <t>23,56; 56,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-31,8; -7,02</t>
+          <t>-29,73; -4,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>45,98; 79,17</t>
+          <t>47,35; 80,33</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>30,76; 60,27</t>
+          <t>35,01; 64,58</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>15,49</t>
+          <t>20,16</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>16,72</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-7,97</t>
+          <t>-8,91</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>12,47</t>
+          <t>18,4</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>-4,49</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7,39; 23,87</t>
+          <t>11,92; 28,6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 8,22</t>
+          <t>-8,03; 8,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 8,42</t>
+          <t>-7,53; 7,59</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,89; 17,83</t>
+          <t>8,28; 24,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 7,5</t>
+          <t>-9,39; 7,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 0,36</t>
+          <t>-16,77; -1,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,8; 19,08</t>
+          <t>12,63; 24,9</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 5,53</t>
+          <t>-6,46; 5,67</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 2,5</t>
+          <t>-9,9; 1,33</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>59,08%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>-2,15%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-17,54%</t>
+          <t>-19,14%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>45,54%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-8,94%</t>
+          <t>-11,12%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>19,81; 82,57</t>
+          <t>30,42; 94,83</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 27,77</t>
+          <t>-20,77; 28,58</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 28,78</t>
+          <t>-20,33; 25,58</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,71; 43,52</t>
+          <t>16,07; 58,44</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 18,02</t>
+          <t>-18,61; 17,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-30,67; 0,97</t>
+          <t>-32,29; -2,34</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>15,91; 53,82</t>
+          <t>28,48; 67,55</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 15,45</t>
+          <t>-14,76; 15,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 7,08</t>
+          <t>-22,74; 3,46</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>16,3</t>
+          <t>19,9</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>16,21</t>
+          <t>17,79</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>16,33</t>
+          <t>17,2</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>11,33</t>
+          <t>16,36</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>19,02</t>
+          <t>23,3</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>13,79</t>
+          <t>18,12</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>12,46</t>
+          <t>13,1</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>18,53</t>
+          <t>21,66</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10,22; 21,22</t>
+          <t>13,9; 25,09</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>10,04; 21,5</t>
+          <t>11,72; 23,1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>9,89; 22,59</t>
+          <t>11,4; 23,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>5,68; 16,89</t>
+          <t>11,22; 22,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,51; 14,75</t>
+          <t>3,18; 14,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,82; 31,98</t>
+          <t>13,15; 38,53</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,57; 17,39</t>
+          <t>13,9; 21,86</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>8,49; 16,36</t>
+          <t>9,16; 16,87</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,43; 27,91</t>
+          <t>14,42; 34,26</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>56,52%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>50,51%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>47,2%</t>
+          <t>48,84%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>33,45%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>40,03%</t>
+          <t>47,65%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>51,33%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>27,06; 67,7</t>
+          <t>36,67; 78,54</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>27,19; 67,67</t>
+          <t>30,65; 71,02</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>25,68; 71,14</t>
+          <t>30,83; 75,6</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>11,24; 38,83</t>
+          <t>21,27; 49,15</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>7,19; 33,53</t>
+          <t>6,17; 31,19</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>23,72; 69,52</t>
+          <t>26,1; 82,15</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>22,29; 44,74</t>
+          <t>31,47; 54,59</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>19,61; 42,07</t>
+          <t>20,78; 42,4</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>31,03; 69,09</t>
+          <t>33,83; 83,98</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-10,01</t>
+          <t>-14,49</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-7,58</t>
+          <t>-8,14</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 3,53</t>
+          <t>-6,52; 4,13</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 6,26</t>
+          <t>-2,69; 7,56</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-19,09; -4,19</t>
+          <t>-36,31; 0,33</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 7,06</t>
+          <t>-1,45; 8,6</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 0,4</t>
+          <t>-6,74; 3,21</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-10,3; -0,6</t>
+          <t>-4,12; 6,11</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,66</t>
+          <t>-2,5; 4,75</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 2,11</t>
+          <t>-3,13; 4,3</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-12,84; -3,57</t>
+          <t>-27,12; 1,28</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-3,82%</t>
+          <t>-2,69%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-19,47%</t>
+          <t>-27,87%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-7,98%</t>
+          <t>-3,11%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-8,6%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>-3,65%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-13,79%</t>
+          <t>-14,69%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 7,26</t>
+          <t>-12,0; 8,49</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 12,83</t>
+          <t>-5,06; 15,42</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-35,03; -8,82</t>
+          <t>-66,91; 0,72</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 12,85</t>
+          <t>-2,39; 15,45</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 0,79</t>
+          <t>-11,0; 5,77</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-16,99; -1,07</t>
+          <t>-6,62; 10,99</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 6,86</t>
+          <t>-4,46; 8,86</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 3,95</t>
+          <t>-5,47; 8,1</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-22,7; -6,94</t>
+          <t>-48,67; 2,34</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>-2,35</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,22</t>
+          <t>3,3; 8,39</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,37</t>
+          <t>2,48; 7,36</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-6,11; -0,5</t>
+          <t>-14,63; -0,57</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2,33; 7,11</t>
+          <t>5,52; 10,23</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 2,05</t>
+          <t>-1,98; 2,89</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 2,3</t>
+          <t>-4,3; 8,54</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,66</t>
+          <t>4,82; 8,34</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 3,53</t>
+          <t>0,94; 4,42</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 0,01</t>
+          <t>-6,95; 2,14</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-7,53%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-5,73%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-6,02%</t>
+          <t>-4,82%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2,27; 14,94</t>
+          <t>7,34; 19,86</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>3,12; 15,48</t>
+          <t>5,5; 17,51</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -1,19</t>
+          <t>-33,36; -1,36</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>4,37; 13,66</t>
+          <t>9,96; 19,25</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 3,96</t>
+          <t>-3,57; 5,5</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 4,4</t>
+          <t>-7,82; 15,89</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>4,82; 12,06</t>
+          <t>9,69; 17,42</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 7,48</t>
+          <t>1,87; 9,22</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 0,01</t>
+          <t>-14,1; 4,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/MCS12_SP_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 23,42</t>
+          <t>6,33; 22,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 22,69</t>
+          <t>6,73; 23,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 1,14</t>
+          <t>-16,56; 2,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,86; 30,71</t>
+          <t>13,85; 31,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 22,64</t>
+          <t>6,22; 23,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,53; -8,65</t>
+          <t>-24,62; -8,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,52; 24,61</t>
+          <t>12,53; 24,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,78; 21,19</t>
+          <t>9,17; 21,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -6,34</t>
+          <t>-17,69; -5,89</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,08; 64,03</t>
+          <t>13,56; 63,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,46; 61,56</t>
+          <t>14,23; 66,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 3,55</t>
+          <t>-37,11; 5,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,08; 66,11</t>
+          <t>24,16; 65,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,41; 47,18</t>
+          <t>10,9; 49,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,41; -18,52</t>
+          <t>-43,23; -17,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,17; 57,06</t>
+          <t>25,25; 57,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,94; 48,44</t>
+          <t>18,41; 47,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,09; -14,05</t>
+          <t>-36,07; -13,84</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-36,78; -24,55</t>
+          <t>-36,11; -24,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-40,3; -27,94</t>
+          <t>-40,06; -28,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-34,64; -21,2</t>
+          <t>-34,05; -21,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,22; -20,55</t>
+          <t>-32,31; -20,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,03; -33,98</t>
+          <t>-45,79; -33,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,12; -24,84</t>
+          <t>-36,06; -24,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,86; -23,99</t>
+          <t>-32,98; -24,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,73; -32,5</t>
+          <t>-41,05; -32,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-34,0; -25,08</t>
+          <t>-34,03; -24,71</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,7; -46,36</t>
+          <t>-62,03; -46,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,59; -53,78</t>
+          <t>-68,72; -53,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,94; -40,16</t>
+          <t>-58,84; -40,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-47,48; -31,44</t>
+          <t>-46,07; -30,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,78; -51,45</t>
+          <t>-64,0; -50,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,63; -37,75</t>
+          <t>-50,4; -37,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,3; -39,94</t>
+          <t>-51,76; -40,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,98; -54,08</t>
+          <t>-64,22; -54,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,42; -41,15</t>
+          <t>-53,1; -41,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,52; 29,32</t>
+          <t>14,02; 30,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,04; 29,28</t>
+          <t>14,46; 29,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 6,62</t>
+          <t>-6,94; 7,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,25; 33,01</t>
+          <t>17,49; 32,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,73; 27,89</t>
+          <t>12,7; 28,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 3,07</t>
+          <t>-10,39; 3,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,26; 29,16</t>
+          <t>18,61; 29,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,34; 26,15</t>
+          <t>15,89; 26,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 2,59</t>
+          <t>-6,25; 3,13</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>47,82; 125,85</t>
+          <t>44,22; 133,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,82; 128,36</t>
+          <t>46,46; 127,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 27,85</t>
+          <t>-23,26; 33,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,07; 90,56</t>
+          <t>39,62; 89,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,78; 76,0</t>
+          <t>27,98; 76,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 7,84</t>
+          <t>-22,51; 9,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,41; 92,84</t>
+          <t>50,54; 94,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>41,51; 84,1</t>
+          <t>42,63; 82,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 8,18</t>
+          <t>-17,22; 10,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,38; 30,06</t>
+          <t>15,38; 29,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 9,75</t>
+          <t>-4,51; 9,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,48; -1,39</t>
+          <t>-17,77; -1,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,65; 30,9</t>
+          <t>17,53; 30,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 10,16</t>
+          <t>-3,16; 10,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 17,69</t>
+          <t>-15,05; 16,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,44; 28,36</t>
+          <t>19,08; 28,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 8,19</t>
+          <t>-2,0; 8,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 12,25</t>
+          <t>-13,08; 13,19</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>34,01; 79,7</t>
+          <t>33,98; 78,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 25,49</t>
+          <t>-10,18; 25,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,0; -3,14</t>
+          <t>-39,45; -3,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32,37; 66,05</t>
+          <t>32,31; 68,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 21,31</t>
+          <t>-5,65; 23,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 37,82</t>
+          <t>-29,0; 34,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,92; 65,67</t>
+          <t>38,76; 66,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 19,27</t>
+          <t>-4,19; 19,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 27,03</t>
+          <t>-28,03; 29,68</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,62; -1,74</t>
+          <t>-21,43; -1,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>31,45; 47,25</t>
+          <t>29,89; 46,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,11; 37,55</t>
+          <t>17,99; 36,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,07; -0,07</t>
+          <t>-18,87; 0,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,98; 36,73</t>
+          <t>19,55; 36,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,55; 30,74</t>
+          <t>15,09; 30,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-16,9; -2,35</t>
+          <t>-18,09; -3,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27,36; 39,16</t>
+          <t>27,13; 39,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>20,5; 32,16</t>
+          <t>20,66; 33,2</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,65; -4,71</t>
+          <t>-40,68; -3,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>58,92; 115,29</t>
+          <t>55,4; 113,06</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>35,76; 93,01</t>
+          <t>32,97; 87,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,55; -0,22</t>
+          <t>-29,4; 0,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>31,12; 70,57</t>
+          <t>30,01; 69,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>23,56; 56,75</t>
+          <t>23,08; 57,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-29,73; -4,19</t>
+          <t>-31,49; -6,69</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>47,35; 80,33</t>
+          <t>46,42; 78,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>35,01; 64,58</t>
+          <t>35,2; 67,75</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>11,92; 28,6</t>
+          <t>11,26; 29,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 8,5</t>
+          <t>-7,11; 8,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 7,59</t>
+          <t>-7,49; 8,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8,28; 24,18</t>
+          <t>8,46; 24,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 7,23</t>
+          <t>-9,6; 7,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,77; -1,2</t>
+          <t>-16,22; -1,13</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>12,63; 24,9</t>
+          <t>11,83; 23,89</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 5,67</t>
+          <t>-5,76; 5,97</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 1,33</t>
+          <t>-10,27; 0,58</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>30,42; 94,83</t>
+          <t>29,15; 98,24</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 28,58</t>
+          <t>-18,26; 27,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 25,58</t>
+          <t>-19,84; 27,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,07; 58,44</t>
+          <t>15,87; 59,09</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 17,64</t>
+          <t>-19,21; 17,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,29; -2,34</t>
+          <t>-31,33; -1,91</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>28,48; 67,55</t>
+          <t>27,34; 64,59</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 15,43</t>
+          <t>-13,65; 15,62</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 3,46</t>
+          <t>-23,49; 1,69</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>13,9; 25,09</t>
+          <t>14,16; 25,07</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>11,72; 23,1</t>
+          <t>11,51; 22,59</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,4; 23,87</t>
+          <t>10,4; 23,39</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>11,22; 22,37</t>
+          <t>11,16; 22,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,18; 14,28</t>
+          <t>2,8; 14,24</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,15; 38,53</t>
+          <t>12,75; 42,09</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>13,9; 21,86</t>
+          <t>14,58; 22,17</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,16; 16,87</t>
+          <t>9,14; 16,89</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>14,42; 34,26</t>
+          <t>14,34; 37,04</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>36,67; 78,54</t>
+          <t>38,35; 78,47</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>30,65; 71,02</t>
+          <t>30,87; 70,01</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>30,83; 75,6</t>
+          <t>26,95; 73,16</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>21,27; 49,15</t>
+          <t>21,78; 48,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>6,17; 31,19</t>
+          <t>5,41; 30,92</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>26,1; 82,15</t>
+          <t>25,53; 94,49</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>31,47; 54,59</t>
+          <t>33,31; 55,16</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>20,78; 42,4</t>
+          <t>20,88; 42,32</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>33,83; 83,98</t>
+          <t>33,4; 91,29</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 4,13</t>
+          <t>-6,17; 3,84</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 7,56</t>
+          <t>-2,42; 7,24</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-36,31; 0,33</t>
+          <t>-34,64; 0,72</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 8,6</t>
+          <t>-1,14; 8,79</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 3,21</t>
+          <t>-6,86; 3,15</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 6,11</t>
+          <t>-3,41; 6,19</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 4,75</t>
+          <t>-2,55; 4,66</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 4,3</t>
+          <t>-3,43; 3,65</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 1,28</t>
+          <t>-26,47; 1,16</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 8,49</t>
+          <t>-11,4; 7,72</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 15,42</t>
+          <t>-4,45; 14,55</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 0,72</t>
+          <t>-67,31; 1,25</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 15,45</t>
+          <t>-1,86; 16,01</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 5,77</t>
+          <t>-11,22; 5,52</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 10,99</t>
+          <t>-5,62; 11,29</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 8,86</t>
+          <t>-4,38; 8,72</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 8,1</t>
+          <t>-5,95; 6,65</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-48,67; 2,34</t>
+          <t>-46,79; 1,95</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>3,3; 8,39</t>
+          <t>3,27; 8,15</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,36</t>
+          <t>2,6; 7,57</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-14,63; -0,57</t>
+          <t>-15,06; -0,96</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>5,52; 10,23</t>
+          <t>5,17; 9,96</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,89</t>
+          <t>-1,89; 2,95</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 8,54</t>
+          <t>-4,44; 8,24</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,34</t>
+          <t>5,04; 8,56</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,42</t>
+          <t>1,01; 4,73</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 2,14</t>
+          <t>-7,19; 2,0</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>7,34; 19,86</t>
+          <t>7,29; 19,58</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>5,5; 17,51</t>
+          <t>5,75; 17,82</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-33,36; -1,36</t>
+          <t>-33,67; -2,26</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>9,96; 19,25</t>
+          <t>9,41; 18,95</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 5,5</t>
+          <t>-3,37; 5,59</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 15,89</t>
+          <t>-8,09; 15,27</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>9,69; 17,42</t>
+          <t>10,18; 17,89</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,22</t>
+          <t>2,11; 9,93</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 4,39</t>
+          <t>-14,56; 4,23</t>
         </is>
       </c>
     </row>
